--- a/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
+++ b/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>005120</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>上投摩根量化多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005120</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>53.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.86</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6171</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
+++ b/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
+++ b/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -764,4 +765,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
+++ b/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
+++ b/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.01</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8566</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -915,14 +958,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.76</v>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -931,14 +996,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="5">
@@ -947,13 +1118,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
+++ b/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.94</v>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1129,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.01</v>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1102,14 +1167,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.76</v>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1118,14 +1205,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="6">
@@ -1134,13 +1343,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
+++ b/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.94</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1444,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.01</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="5">
@@ -1327,14 +1460,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2.76</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="6">
@@ -1343,14 +1476,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="7">
@@ -1359,13 +1492,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
+++ b/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.94</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3.01</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2.76</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -600,6 +617,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016858</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -731,7 +1068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,7 +1276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1102,100 +1439,6 @@
       </c>
       <c r="H4" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>43.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.0088</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1270,26 +1513,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.64</t>
+          <t>43.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7640</t>
+          <t>3.0088</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1364,26 +1607,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.85</t>
+          <t>56.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>92.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6171</t>
+          <t>2.7640</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1392,6 +1635,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6171</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
+++ b/数据整理/stocks/A股/上证主板/600583-海油工程.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.94</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3.01</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2.76</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -616,7 +633,1181 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8139</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6744</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4988</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3926</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安优嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安优嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>970007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013755</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013756</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>970006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -936,7 +2127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1068,7 +2259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1276,7 +2467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1439,100 +2630,6 @@
       </c>
       <c r="H4" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>43.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.0088</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1607,26 +2704,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.64</t>
+          <t>43.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7640</t>
+          <t>3.0088</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1701,26 +2798,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.85</t>
+          <t>56.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>92.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6171</t>
+          <t>2.7640</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1734,128 +2831,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005120</t>
+          <t>002910</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
+          <t>易方达供给改革灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>53.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>93.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0109</t>
+          <t>2.6171</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159945</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证全指能源ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>